--- a/data/trans_dic/P78C3_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C3_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>40,43%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,25</t>
+          <t>0,0; 77,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 80,6</t>
+          <t>17,39; 80,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,39; 67,85</t>
+          <t>17,77; 66,93</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,93%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,28</t>
+          <t>0,0; 41,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,86; 100,0</t>
+          <t>29,65; 97,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 57,3</t>
+          <t>9,61; 53,83</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>71,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>79,3%</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 100,0</t>
+          <t>7,01; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 100,0</t>
+          <t>28,27; 100,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 47,57</t>
+          <t>5,79; 45,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,48; 79,02</t>
+          <t>38,65; 79,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 54,6</t>
+          <t>20,59; 52,66</t>
         </is>
       </c>
     </row>
